--- a/src/api/reports/templates/su_summary.xlsx
+++ b/src/api/reports/templates/su_summary.xlsx
@@ -33,6 +33,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -54,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,108 +132,110 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
